--- a/src/test/resources/DataVariableUpdaterTest/artifact/script/MyTestScript.xlsx
+++ b/src/test/resources/DataVariableUpdaterTest/artifact/script/MyTestScript.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10223"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/sentry-core/src/test/resources/DataVariableUpdaterTest/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DA89B-99F2-814C-A7AA-6624ED6C1637}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CA3DA89B-99F2-814C-A7AA-6624ED6C1637}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12540" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -36,13 +36,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
-    <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
-    <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
-    <definedName name="ws">'#system'!$T$2:$T$16</definedName>
-    <definedName name="xml">'#system'!$U$2:$U$11</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="456">
   <si>
     <t>jira</t>
   </si>
@@ -1362,13 +1364,80 @@
   </si>
   <si>
     <t>select:*:from:</t>
+  </si>
+  <si>
+    <t>story / feature</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
+  </si>
+  <si>
+    <t>${nexial.web.alwaysWait}</t>
+  </si>
+  <si>
+    <t>[TEXT(${nexial.ws.digest.user}) =&gt; length]</t>
+  </si>
+  <si>
+    <t>[TEXT(${nexial.runID.prefix}) =&gt; split(-) list]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1445,8 +1514,84 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1465,8 +1610,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1504,152 +1768,382 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="50">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1683,7 +2177,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1708,10 +2202,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1746,7 +2240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1781,7 +2275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1875,21 +2369,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1906,7 +2400,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1958,26 +2452,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2024,25 +2518,31 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q1" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>378</v>
       </c>
@@ -2080,7 +2580,7 @@
         <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -2089,25 +2589,31 @@
         <v>222</v>
       </c>
       <c r="P2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q2" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>450</v>
+      </c>
+      <c r="S2" t="s">
         <v>100</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>175</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>180</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>187</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2151,25 +2657,31 @@
         <v>223</v>
       </c>
       <c r="P3" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q3" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>451</v>
+      </c>
+      <c r="S3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>181</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>371</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2210,25 +2722,31 @@
         <v>224</v>
       </c>
       <c r="P4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q4" t="s">
         <v>365</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>452</v>
+      </c>
+      <c r="S4" t="s">
         <v>359</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>182</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2263,25 +2781,28 @@
         <v>225</v>
       </c>
       <c r="P5" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q5" t="s">
         <v>366</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>183</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>189</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2313,25 +2834,28 @@
         <v>398</v>
       </c>
       <c r="P6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q6" t="s">
         <v>368</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>179</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>184</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>190</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2360,22 +2884,25 @@
         <v>249</v>
       </c>
       <c r="P7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q7" t="s">
         <v>367</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>185</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>191</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -2404,22 +2931,25 @@
         <v>250</v>
       </c>
       <c r="P8" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q8" t="s">
         <v>369</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>186</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>192</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2445,19 +2975,22 @@
         <v>251</v>
       </c>
       <c r="P9" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q9" t="s">
         <v>370</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>214</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>193</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -2479,17 +3012,20 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="P10" t="s">
+        <v>449</v>
+      </c>
+      <c r="S10" t="s">
         <v>262</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>194</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2511,17 +3047,17 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>263</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>264</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2540,14 +3076,14 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2566,14 +3102,14 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>331</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -2592,14 +3128,14 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>106</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2615,16 +3151,16 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>107</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -2638,16 +3174,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>78</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -2658,13 +3194,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -2675,13 +3211,13 @@
       <c r="I18" t="s">
         <v>399</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -2692,13 +3228,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -2709,13 +3245,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -2726,718 +3262,724 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" t="s">
         <v>230</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>73</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="S42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="S44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q52" t="s">
+        <v>336</v>
+      </c>
+      <c r="S52" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q53" t="s">
+        <v>273</v>
+      </c>
+      <c r="S53" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q54" t="s">
+        <v>297</v>
+      </c>
+      <c r="S54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q55" t="s">
+        <v>298</v>
+      </c>
+      <c r="S55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q56" t="s">
+        <v>299</v>
+      </c>
+      <c r="S56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q57" t="s">
+        <v>308</v>
+      </c>
+      <c r="S57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q58" t="s">
+        <v>317</v>
+      </c>
+      <c r="S58" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q59" t="s">
+        <v>342</v>
+      </c>
+      <c r="S59" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q60" t="s">
+        <v>314</v>
+      </c>
+      <c r="S60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q61" t="s">
+        <v>315</v>
+      </c>
+      <c r="S61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q62" t="s">
+        <v>376</v>
+      </c>
+      <c r="S62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q63" t="s">
+        <v>377</v>
+      </c>
+      <c r="S63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q64" t="s">
+        <v>350</v>
+      </c>
+      <c r="S64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q65" t="s">
+        <v>318</v>
+      </c>
+      <c r="S65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q66" t="s">
+        <v>274</v>
+      </c>
+      <c r="S66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q67" t="s">
+        <v>358</v>
+      </c>
+      <c r="S67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q68" t="s">
+        <v>319</v>
+      </c>
+      <c r="S68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q69" t="s">
+        <v>438</v>
+      </c>
+      <c r="S69" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q70" t="s">
+        <v>309</v>
+      </c>
+      <c r="S70" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q71" t="s">
+        <v>439</v>
+      </c>
+      <c r="S71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="S72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="S73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="S74" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="S76" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="S77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="S78" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="S81" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="S82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="S84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="S85" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>310</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="S86" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="S87" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="S88" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="S89" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q92" t="s">
+    <row r="92">
+      <c r="S92" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q93" t="s">
+    <row r="93">
+      <c r="S93" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q94" t="s">
+    <row r="94">
+      <c r="S94" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q95" t="s">
+    <row r="95">
+      <c r="S95" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q96" t="s">
+    <row r="96">
+      <c r="S96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q97" t="s">
+    <row r="97">
+      <c r="S97" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q98" t="s">
+    <row r="98">
+      <c r="S98" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q99" t="s">
+    <row r="99">
+      <c r="S99" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q100" t="s">
+    <row r="100">
+      <c r="S100" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
+    <row r="101">
+      <c r="S101" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q102" t="s">
+    <row r="102">
+      <c r="S102" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q103" t="s">
+    <row r="103">
+      <c r="S103" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
+    <row r="104">
+      <c r="S104" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="105">
+      <c r="S105" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="106">
+      <c r="S106" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
+    <row r="107">
+      <c r="S107" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q108" t="s">
+    <row r="108">
+      <c r="S108" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="53.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="29.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="44.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="53.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="49.33203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
@@ -3451,10 +3993,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>21</v>
@@ -3468,7 +4010,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>50</v>
       </c>
@@ -3489,7 +4031,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3506,7 +4048,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>226</v>
       </c>
@@ -3551,7 +4093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>408</v>
       </c>
@@ -3565,7 +4107,7 @@
         <v>73</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3578,7 +4120,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -3601,7 +4143,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>409</v>
       </c>
@@ -3628,7 +4170,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -3651,7 +4193,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>410</v>
       </c>
@@ -3676,7 +4218,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -3701,7 +4243,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>415</v>
       </c>
@@ -3716,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3728,7 +4270,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -3741,7 +4283,7 @@
         <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>418</v>
@@ -3755,7 +4297,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="65" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -3782,7 +4324,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -3807,7 +4349,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>424</v>
       </c>
@@ -3834,14 +4376,14 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>426</v>
@@ -3861,7 +4403,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>427</v>
       </c>
@@ -3890,7 +4432,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -3913,7 +4455,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -3938,7 +4480,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -3955,7 +4497,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -3972,7 +4514,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -3989,7 +4531,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4006,7 +4548,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4023,7 +4565,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4040,7 +4582,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4057,7 +4599,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4074,7 +4616,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4091,7 +4633,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4108,7 +4650,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4125,7 +4667,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4142,7 +4684,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4159,7 +4701,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4176,7 +4718,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4193,7 +4735,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4210,7 +4752,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4227,7 +4769,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4244,7 +4786,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4261,7 +4803,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4278,7 +4820,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4295,7 +4837,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4312,7 +4854,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4329,7 +4871,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4346,7 +4888,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4363,7 +4905,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4380,7 +4922,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4397,7 +4939,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4414,7 +4956,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4431,7 +4973,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4448,7 +4990,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4465,7 +5007,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4482,7 +5024,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4499,7 +5041,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4516,7 +5058,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4533,7 +5075,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4550,7 +5092,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4567,7 +5109,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4584,7 +5126,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4601,7 +5143,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4618,7 +5160,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -4635,7 +5177,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -4652,7 +5194,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -4669,7 +5211,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -4686,7 +5228,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -4703,7 +5245,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -4720,7 +5262,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -4737,7 +5279,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -4754,7 +5296,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -4771,7 +5313,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -4788,7 +5330,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -4805,7 +5347,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -4822,7 +5364,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -4839,7 +5381,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -4856,7 +5398,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -4873,7 +5415,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -4890,7 +5432,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -4907,7 +5449,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -4924,7 +5466,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -4941,7 +5483,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -4958,7 +5500,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -4975,7 +5517,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -4992,7 +5534,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5009,7 +5551,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5026,7 +5568,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5043,7 +5585,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5060,7 +5602,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5077,7 +5619,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5094,7 +5636,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5111,7 +5653,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5128,7 +5670,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5145,7 +5687,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5162,7 +5704,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5179,7 +5721,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5196,7 +5738,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5213,7 +5755,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5230,7 +5772,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5247,7 +5789,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5264,7 +5806,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5281,7 +5823,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5298,7 +5840,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5315,7 +5857,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5332,7 +5874,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5349,7 +5891,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5366,7 +5908,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5383,7 +5925,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5400,7 +5942,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5417,7 +5959,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5434,7 +5976,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5451,7 +5993,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5468,7 +6010,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5485,7 +6027,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5502,7 +6044,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5519,7 +6061,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5536,7 +6078,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5553,7 +6095,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5570,7 +6112,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5587,7 +6129,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5604,7 +6146,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5621,7 +6163,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -5638,7 +6180,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -5655,7 +6197,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -5672,7 +6214,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -5689,7 +6231,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -5706,7 +6248,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -5723,7 +6265,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -5740,7 +6282,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -5757,7 +6299,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -5774,7 +6316,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -5791,7 +6333,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -5808,7 +6350,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -5825,7 +6367,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -5842,7 +6384,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -5859,7 +6401,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -5876,7 +6418,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -5893,7 +6435,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -5910,7 +6452,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -5927,7 +6469,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -5944,7 +6486,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -5961,7 +6503,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -5978,7 +6520,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -5995,7 +6537,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6012,7 +6554,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6029,7 +6571,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6046,7 +6588,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6063,7 +6605,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6080,7 +6622,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6097,7 +6639,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6114,7 +6656,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6131,7 +6673,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6148,7 +6690,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6165,7 +6707,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6182,7 +6724,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6199,7 +6741,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6216,7 +6758,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6233,7 +6775,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6250,7 +6792,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6267,7 +6809,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6284,7 +6826,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6301,7 +6843,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6318,7 +6860,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6335,7 +6877,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6352,7 +6894,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6369,7 +6911,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6386,7 +6928,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6403,7 +6945,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6420,7 +6962,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6437,7 +6979,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6454,7 +6996,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6471,7 +7013,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6488,7 +7030,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6505,7 +7047,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6522,7 +7064,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6539,7 +7081,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6556,7 +7098,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6573,7 +7115,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6590,7 +7132,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6607,7 +7149,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6624,7 +7166,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -6641,7 +7183,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -6658,7 +7200,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -6675,7 +7217,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -6692,7 +7234,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -6709,7 +7251,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -6726,7 +7268,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -6743,7 +7285,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -6760,7 +7302,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -6777,7 +7319,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -6794,7 +7336,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -6811,7 +7353,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -6828,7 +7370,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -6845,7 +7387,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -6862,7 +7404,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -6879,7 +7421,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -6896,7 +7438,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -6913,7 +7455,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -6930,7 +7472,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -6947,7 +7489,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -6964,7 +7506,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -6981,7 +7523,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -6998,7 +7540,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7015,7 +7557,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7032,7 +7574,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7049,7 +7591,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7066,7 +7608,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7083,7 +7625,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7100,7 +7642,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7117,7 +7659,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7134,7 +7676,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7151,7 +7693,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7168,7 +7710,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7185,7 +7727,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7202,7 +7744,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7219,7 +7761,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7236,7 +7778,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7253,7 +7795,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7270,7 +7812,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7287,7 +7829,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7304,7 +7846,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7321,7 +7863,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7338,7 +7880,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7355,7 +7897,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7372,7 +7914,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7389,7 +7931,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7406,7 +7948,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7423,7 +7965,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7440,7 +7982,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7457,7 +7999,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7474,7 +8016,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7491,7 +8033,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7508,7 +8050,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7525,7 +8067,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7542,7 +8084,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7559,7 +8101,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7576,7 +8118,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7593,7 +8135,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7610,7 +8152,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7627,7 +8169,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -7644,7 +8186,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -7661,7 +8203,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -7678,7 +8220,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -7695,7 +8237,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -7712,7 +8254,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -7729,7 +8271,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -7746,7 +8288,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -7763,7 +8305,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -7780,7 +8322,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -7797,7 +8339,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -7814,7 +8356,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -7831,7 +8373,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -7848,7 +8390,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -7865,7 +8407,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -7882,7 +8424,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -7899,7 +8441,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -7916,7 +8458,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -7933,7 +8475,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -7950,7 +8492,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -7967,7 +8509,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -7984,7 +8526,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8001,7 +8543,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8018,7 +8560,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8035,7 +8577,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8052,7 +8594,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8069,7 +8611,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8086,7 +8628,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8103,7 +8645,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8120,7 +8662,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8137,7 +8679,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8154,7 +8696,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8171,7 +8713,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8188,7 +8730,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8205,7 +8747,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8222,7 +8764,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8239,7 +8781,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8256,7 +8798,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8273,7 +8815,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8290,7 +8832,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8307,7 +8849,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8324,7 +8866,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8341,7 +8883,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8358,7 +8900,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8375,7 +8917,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8392,7 +8934,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8409,7 +8951,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8426,7 +8968,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8443,7 +8985,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8460,7 +9002,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8477,7 +9019,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8494,7 +9036,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8511,7 +9053,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8528,7 +9070,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8545,7 +9087,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8562,7 +9104,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8579,7 +9121,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8596,7 +9138,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8613,7 +9155,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8630,7 +9172,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -8647,7 +9189,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -8664,7 +9206,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -8681,7 +9223,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -8698,7 +9240,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -8715,7 +9257,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -8732,7 +9274,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -8749,7 +9291,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -8766,7 +9308,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -8783,7 +9325,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -8800,7 +9342,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -8817,7 +9359,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -8834,7 +9376,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -8851,7 +9393,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -8868,7 +9410,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -8885,7 +9427,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -8902,7 +9444,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -8919,7 +9461,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -8936,7 +9478,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -8953,7 +9495,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -8970,7 +9512,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -8987,7 +9529,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9004,7 +9546,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9021,7 +9563,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9038,7 +9580,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9055,7 +9597,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9072,7 +9614,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9089,7 +9631,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9106,7 +9648,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9123,7 +9665,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9140,7 +9682,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9157,7 +9699,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9174,7 +9716,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9191,7 +9733,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9208,7 +9750,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9225,7 +9767,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9242,7 +9784,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9259,7 +9801,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9276,7 +9818,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9293,7 +9835,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9310,7 +9852,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9327,7 +9869,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9344,7 +9886,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9361,7 +9903,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9378,7 +9920,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9395,7 +9937,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9412,7 +9954,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9429,7 +9971,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9446,7 +9988,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9463,7 +10005,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9480,7 +10022,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9497,7 +10039,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9514,7 +10056,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9531,7 +10073,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9548,7 +10090,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9565,7 +10107,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9582,7 +10124,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9599,7 +10141,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9616,7 +10158,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -9633,7 +10175,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -9650,7 +10192,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -9667,7 +10209,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -9684,7 +10226,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -9701,7 +10243,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -9718,7 +10260,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -9735,7 +10277,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -9752,7 +10294,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -9769,7 +10311,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -9786,7 +10328,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -9803,7 +10345,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -9820,7 +10362,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -9837,7 +10379,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -9854,7 +10396,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -9871,7 +10413,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -9888,7 +10430,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -9905,7 +10447,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -9922,7 +10464,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -9939,7 +10481,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -9956,7 +10498,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -9973,7 +10515,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -9990,7 +10532,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10007,7 +10549,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10024,7 +10566,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10041,7 +10583,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10058,7 +10600,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10075,7 +10617,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10092,7 +10634,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10109,7 +10651,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10126,7 +10668,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10143,7 +10685,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10160,7 +10702,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10177,7 +10719,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10194,7 +10736,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10211,7 +10753,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10228,7 +10770,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10245,7 +10787,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10262,7 +10804,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10279,7 +10821,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10296,7 +10838,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10313,7 +10855,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10330,7 +10872,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10347,7 +10889,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10364,7 +10906,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10381,7 +10923,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10398,7 +10940,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10415,7 +10957,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10432,7 +10974,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10449,7 +10991,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10466,7 +11008,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10483,7 +11025,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10500,7 +11042,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10517,7 +11059,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10534,7 +11076,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10551,7 +11093,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10568,7 +11110,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10585,7 +11127,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10602,7 +11144,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10619,7 +11161,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -10636,7 +11178,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -10653,7 +11195,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -10670,7 +11212,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -10687,7 +11229,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -10704,7 +11246,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -10721,7 +11263,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -10738,7 +11280,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -10755,7 +11297,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -10772,7 +11314,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -10789,7 +11331,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -10806,7 +11348,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -10823,7 +11365,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -10840,7 +11382,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -10857,7 +11399,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -10874,7 +11416,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -10891,7 +11433,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -10908,7 +11450,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -10925,7 +11467,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -10942,7 +11484,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -10959,7 +11501,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -10976,7 +11518,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -10993,7 +11535,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11010,7 +11552,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11027,7 +11569,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11044,7 +11586,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11061,7 +11603,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11078,7 +11620,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11095,7 +11637,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11112,7 +11654,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11129,7 +11671,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11146,7 +11688,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11163,7 +11705,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11180,7 +11722,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11197,7 +11739,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11214,7 +11756,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11231,7 +11773,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11248,7 +11790,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11265,7 +11807,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11282,7 +11824,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11299,7 +11841,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11316,7 +11858,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11333,7 +11875,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11350,7 +11892,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11367,7 +11909,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11384,7 +11926,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11401,7 +11943,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11418,7 +11960,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11435,7 +11977,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11452,7 +11994,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11469,7 +12011,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11486,7 +12028,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11503,7 +12045,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11520,7 +12062,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11537,7 +12079,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11554,7 +12096,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11571,7 +12113,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11588,7 +12130,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11605,7 +12147,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11622,7 +12164,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -11639,7 +12181,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -11656,7 +12198,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -11673,7 +12215,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -11690,7 +12232,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -11707,7 +12249,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -11724,7 +12266,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -11741,7 +12283,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -11758,7 +12300,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -11775,7 +12317,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -11792,7 +12334,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -11809,7 +12351,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -11826,7 +12368,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -11843,7 +12385,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -11860,7 +12402,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -11877,7 +12419,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -11894,7 +12436,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -11911,7 +12453,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -11928,7 +12470,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -11945,7 +12487,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -11962,7 +12504,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -11979,7 +12521,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -11996,7 +12538,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12013,7 +12555,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12030,7 +12572,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12047,7 +12589,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12064,7 +12606,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12081,7 +12623,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12098,7 +12640,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12115,7 +12657,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12132,7 +12674,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12149,7 +12691,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12166,7 +12708,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12183,7 +12725,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12200,7 +12742,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12217,7 +12759,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12234,7 +12776,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12251,7 +12793,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12268,7 +12810,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12285,7 +12827,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12302,7 +12844,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12319,7 +12861,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12336,7 +12878,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12353,7 +12895,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12370,7 +12912,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12387,7 +12929,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12404,7 +12946,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12421,7 +12963,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12438,7 +12980,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12455,7 +12997,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12472,7 +13014,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12489,7 +13031,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12506,7 +13048,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12523,7 +13065,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12540,7 +13082,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12557,7 +13099,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12574,7 +13116,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12591,7 +13133,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12608,7 +13150,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12625,7 +13167,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -12642,7 +13184,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -12659,7 +13201,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -12676,7 +13218,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -12693,7 +13235,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -12710,7 +13252,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -12727,7 +13269,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -12744,7 +13286,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -12761,7 +13303,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -12778,7 +13320,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -12795,7 +13337,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -12812,7 +13354,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -12829,7 +13371,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -12846,7 +13388,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -12863,7 +13405,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -12880,7 +13422,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -12897,7 +13439,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -12914,7 +13456,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -12931,7 +13473,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -12948,7 +13490,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -12965,7 +13507,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -12982,7 +13524,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -12999,7 +13541,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13016,7 +13558,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13033,7 +13575,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13050,7 +13592,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13067,7 +13609,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13084,7 +13626,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13101,7 +13643,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13118,7 +13660,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13135,7 +13677,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13152,7 +13694,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13169,7 +13711,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13186,7 +13728,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13203,7 +13745,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13220,7 +13762,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13237,7 +13779,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13254,7 +13796,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13271,7 +13813,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13288,7 +13830,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13305,7 +13847,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13322,7 +13864,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13339,7 +13881,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13356,7 +13898,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13373,7 +13915,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13390,7 +13932,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13407,7 +13949,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13424,7 +13966,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13441,7 +13983,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13458,7 +14000,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13475,7 +14017,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13492,7 +14034,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13509,7 +14051,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13526,7 +14068,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13543,7 +14085,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13560,7 +14102,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13577,7 +14119,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13594,7 +14136,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13611,7 +14153,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13628,7 +14170,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -13645,7 +14187,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -13662,7 +14204,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -13679,7 +14221,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -13696,7 +14238,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -13713,7 +14255,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -13730,7 +14272,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -13747,7 +14289,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -13764,7 +14306,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -13781,7 +14323,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -13798,7 +14340,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -13815,7 +14357,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -13832,7 +14374,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -13849,7 +14391,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -13866,7 +14408,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -13883,7 +14425,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -13900,7 +14442,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -13917,7 +14459,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -13934,7 +14476,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -13951,7 +14493,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -13968,7 +14510,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -13985,7 +14527,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14002,7 +14544,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14019,7 +14561,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14036,7 +14578,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14053,7 +14595,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14070,7 +14612,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14087,7 +14629,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14104,7 +14646,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14121,7 +14663,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14138,7 +14680,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14155,7 +14697,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14172,7 +14714,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14189,7 +14731,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14206,7 +14748,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14223,7 +14765,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14240,7 +14782,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14257,7 +14799,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14274,7 +14816,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14291,7 +14833,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14308,7 +14850,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14325,7 +14867,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14342,7 +14884,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14359,7 +14901,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14376,7 +14918,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14393,7 +14935,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14410,7 +14952,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14427,7 +14969,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14444,7 +14986,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14461,7 +15003,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14478,7 +15020,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14495,7 +15037,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14512,7 +15054,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14529,7 +15071,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14546,7 +15088,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14563,7 +15105,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14580,7 +15122,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14597,7 +15139,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14614,7 +15156,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -14631,360 +15173,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -14992,25 +15534,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>